--- a/scratchpad.xlsx
+++ b/scratchpad.xlsx
@@ -16,17 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Pn = n(3n-1)/2</t>
-  </si>
-  <si>
-    <t>d(n-1) = |dn - dn-1|</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,145 +374,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <f>A2*((3*A2)-1)/2</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B11" si="0">A3*((3*A3)-1)/2</f>
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <f>B3-B2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" ref="C4:C11" si="1">B4-B3</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
